--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gdf11-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H2">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I2">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J2">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N2">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P2">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q2">
-        <v>20.20821132513067</v>
+        <v>12.75407362646433</v>
       </c>
       <c r="R2">
-        <v>181.873901926176</v>
+        <v>114.786662638179</v>
       </c>
       <c r="S2">
-        <v>0.04357258213906813</v>
+        <v>0.02810514532210184</v>
       </c>
       <c r="T2">
-        <v>0.04357258213906814</v>
+        <v>0.02810514532210184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H3">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I3">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J3">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P3">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q3">
-        <v>45.76888950664911</v>
+        <v>37.55960415381633</v>
       </c>
       <c r="R3">
-        <v>411.920005559842</v>
+        <v>338.036437384347</v>
       </c>
       <c r="S3">
-        <v>0.09868605713571273</v>
+        <v>0.08276713494841764</v>
       </c>
       <c r="T3">
-        <v>0.09868605713571274</v>
+        <v>0.08276713494841766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H4">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I4">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J4">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N4">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O4">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P4">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q4">
-        <v>7.480709589154001</v>
+        <v>7.883346390997667</v>
       </c>
       <c r="R4">
-        <v>67.326386302386</v>
+        <v>70.950117518979</v>
       </c>
       <c r="S4">
-        <v>0.01612977159569662</v>
+        <v>0.01737190817871088</v>
       </c>
       <c r="T4">
-        <v>0.01612977159569662</v>
+        <v>0.01737190817871088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H5">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I5">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J5">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N5">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P5">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q5">
-        <v>10.90505903632111</v>
+        <v>12.02768261229167</v>
       </c>
       <c r="R5">
-        <v>98.14553132688999</v>
+        <v>108.249143510625</v>
       </c>
       <c r="S5">
-        <v>0.0235132923417415</v>
+        <v>0.02650445478103185</v>
       </c>
       <c r="T5">
-        <v>0.0235132923417415</v>
+        <v>0.02650445478103185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.478995333333333</v>
+        <v>1.213717</v>
       </c>
       <c r="H6">
-        <v>4.436986</v>
+        <v>3.641151</v>
       </c>
       <c r="I6">
-        <v>0.2014423261581744</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="J6">
-        <v>0.2014423261581745</v>
+        <v>0.1670279721947804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N6">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O6">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P6">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q6">
-        <v>9.062603557811778</v>
+        <v>5.572341430801333</v>
       </c>
       <c r="R6">
-        <v>81.56343202030601</v>
+        <v>50.151072877212</v>
       </c>
       <c r="S6">
-        <v>0.01954062294595544</v>
+        <v>0.01227932896451814</v>
       </c>
       <c r="T6">
-        <v>0.01954062294595544</v>
+        <v>0.01227932896451814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H7">
         <v>11.608982</v>
       </c>
       <c r="I7">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J7">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N7">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P7">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q7">
-        <v>52.87300016850133</v>
+        <v>40.66346360156422</v>
       </c>
       <c r="R7">
-        <v>475.8570015165119</v>
+        <v>365.971172414078</v>
       </c>
       <c r="S7">
-        <v>0.1140038128914456</v>
+        <v>0.0896068650137455</v>
       </c>
       <c r="T7">
-        <v>0.1140038128914456</v>
+        <v>0.08960686501374551</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H8">
         <v>11.608982</v>
       </c>
       <c r="I8">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J8">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P8">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q8">
         <v>119.7502571436282</v>
@@ -948,10 +948,10 @@
         <v>1077.752314292654</v>
       </c>
       <c r="S8">
-        <v>0.2582033526676578</v>
+        <v>0.263884189314794</v>
       </c>
       <c r="T8">
-        <v>0.2582033526676579</v>
+        <v>0.263884189314794</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H9">
         <v>11.608982</v>
       </c>
       <c r="I9">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J9">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N9">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O9">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P9">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q9">
-        <v>19.572615953198</v>
+        <v>25.13425736885311</v>
       </c>
       <c r="R9">
-        <v>176.153543578782</v>
+        <v>226.208316319678</v>
       </c>
       <c r="S9">
-        <v>0.04220212281908334</v>
+        <v>0.05538637901924622</v>
       </c>
       <c r="T9">
-        <v>0.04220212281908334</v>
+        <v>0.05538637901924622</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H10">
         <v>11.608982</v>
       </c>
       <c r="I10">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J10">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N10">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P10">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q10">
-        <v>28.53212384749222</v>
+        <v>38.34753102736111</v>
       </c>
       <c r="R10">
-        <v>256.78911462743</v>
+        <v>345.12777924625</v>
       </c>
       <c r="S10">
-        <v>0.06152045274788221</v>
+        <v>0.08450342720552174</v>
       </c>
       <c r="T10">
-        <v>0.06152045274788222</v>
+        <v>0.08450342720552174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.869660666666666</v>
+        <v>3.869660666666667</v>
       </c>
       <c r="H11">
         <v>11.608982</v>
       </c>
       <c r="I11">
-        <v>0.5270560552610208</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="J11">
-        <v>0.527056055261021</v>
+        <v>0.5325307087527285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N11">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O11">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P11">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q11">
-        <v>23.71150181131355</v>
+        <v>17.76614355406489</v>
       </c>
       <c r="R11">
-        <v>213.403516301822</v>
+        <v>159.895291986584</v>
       </c>
       <c r="S11">
-        <v>0.05112631413495188</v>
+        <v>0.03914984819942093</v>
       </c>
       <c r="T11">
-        <v>0.05112631413495189</v>
+        <v>0.03914984819942093</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H12">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J12">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N12">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P12">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q12">
-        <v>1.433352866688</v>
+        <v>1.681128058841778</v>
       </c>
       <c r="R12">
-        <v>12.900175800192</v>
+        <v>15.130152529576</v>
       </c>
       <c r="S12">
-        <v>0.00309056969531804</v>
+        <v>0.003704569205306466</v>
       </c>
       <c r="T12">
-        <v>0.00309056969531804</v>
+        <v>0.003704569205306467</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H13">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J13">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P13">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q13">
-        <v>3.246352085496</v>
+        <v>4.950771515929778</v>
       </c>
       <c r="R13">
-        <v>29.217168769464</v>
+        <v>44.55694364336799</v>
       </c>
       <c r="S13">
-        <v>0.006999726033233916</v>
+        <v>0.01090962440604176</v>
       </c>
       <c r="T13">
-        <v>0.006999726033233917</v>
+        <v>0.01090962440604176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H14">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J14">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N14">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O14">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P14">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q14">
-        <v>0.530600970168</v>
+        <v>1.039112302752889</v>
       </c>
       <c r="R14">
-        <v>4.775408731512</v>
+        <v>9.352010724775999</v>
       </c>
       <c r="S14">
-        <v>0.001144072277538147</v>
+        <v>0.002289809760409062</v>
       </c>
       <c r="T14">
-        <v>0.001144072277538147</v>
+        <v>0.002289809760409062</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H15">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J15">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N15">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P15">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q15">
-        <v>0.7734874393199999</v>
+        <v>1.585381683888889</v>
       </c>
       <c r="R15">
-        <v>6.961386953879999</v>
+        <v>14.268435155</v>
       </c>
       <c r="S15">
-        <v>0.001667779717910796</v>
+        <v>0.00349358047645581</v>
       </c>
       <c r="T15">
-        <v>0.001667779717910796</v>
+        <v>0.00349358047645581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.104904</v>
+        <v>0.1599813333333333</v>
       </c>
       <c r="H16">
-        <v>0.314712</v>
+        <v>0.479944</v>
       </c>
       <c r="I16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="J16">
-        <v>0.0142881490610724</v>
+        <v>0.02201613530640495</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N16">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O16">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P16">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q16">
-        <v>0.6428034911279999</v>
+        <v>0.7344962721031111</v>
       </c>
       <c r="R16">
-        <v>5.785231420152</v>
+        <v>6.610466448928</v>
       </c>
       <c r="S16">
-        <v>0.0013860013370715</v>
+        <v>0.001618551458191845</v>
       </c>
       <c r="T16">
-        <v>0.0013860013370715</v>
+        <v>0.001618551458191845</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H17">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J17">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N17">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P17">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q17">
-        <v>23.16904927160533</v>
+        <v>19.40747635588378</v>
       </c>
       <c r="R17">
-        <v>208.521443444448</v>
+        <v>174.667287202954</v>
       </c>
       <c r="S17">
-        <v>0.04995668771613128</v>
+        <v>0.04276672373802015</v>
       </c>
       <c r="T17">
-        <v>0.04995668771613127</v>
+        <v>0.04276672373802016</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H18">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J18">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P18">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q18">
-        <v>52.47479052079622</v>
+        <v>57.15327909343577</v>
       </c>
       <c r="R18">
-        <v>472.273114687166</v>
+        <v>514.379511840922</v>
       </c>
       <c r="S18">
-        <v>0.1131452004044699</v>
+        <v>0.1259441698080391</v>
       </c>
       <c r="T18">
-        <v>0.1131452004044699</v>
+        <v>0.1259441698080391</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H19">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J19">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N19">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O19">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P19">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q19">
-        <v>8.576757550142002</v>
+        <v>11.99584251819489</v>
       </c>
       <c r="R19">
-        <v>77.19081795127801</v>
+        <v>107.962582663754</v>
       </c>
       <c r="S19">
-        <v>0.01849305051435663</v>
+        <v>0.026434291278933</v>
       </c>
       <c r="T19">
-        <v>0.01849305051435663</v>
+        <v>0.026434291278933</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H20">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J20">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N20">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P20">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q20">
-        <v>12.50283095605222</v>
+        <v>18.30214978763889</v>
       </c>
       <c r="R20">
-        <v>112.52547860447</v>
+        <v>164.71934808875</v>
       </c>
       <c r="S20">
-        <v>0.02695837944479466</v>
+        <v>0.04033100282729538</v>
       </c>
       <c r="T20">
-        <v>0.02695837944479466</v>
+        <v>0.04033100282729538</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.695692666666667</v>
+        <v>1.846875333333333</v>
       </c>
       <c r="H21">
-        <v>5.087078</v>
+        <v>5.540626</v>
       </c>
       <c r="I21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="J21">
-        <v>0.2309569662081588</v>
+        <v>0.2541612598515352</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N21">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O21">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P21">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q21">
-        <v>10.39042520793756</v>
+        <v>8.479258292879111</v>
       </c>
       <c r="R21">
-        <v>93.513826871438</v>
+        <v>76.313324635912</v>
       </c>
       <c r="S21">
-        <v>0.02240364812840633</v>
+        <v>0.01868507219924751</v>
       </c>
       <c r="T21">
-        <v>0.02240364812840633</v>
+        <v>0.01868507219924751</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H22">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I22">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J22">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.663472</v>
+        <v>10.50827633333333</v>
       </c>
       <c r="N22">
-        <v>40.990416</v>
+        <v>31.524829</v>
       </c>
       <c r="O22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018133</v>
       </c>
       <c r="P22">
-        <v>0.2163030132250088</v>
+        <v>0.1682660991018134</v>
       </c>
       <c r="Q22">
-        <v>2.633989478271999</v>
+        <v>1.852766741711667</v>
       </c>
       <c r="R22">
-        <v>23.705905304448</v>
+        <v>16.674900675405</v>
       </c>
       <c r="S22">
-        <v>0.005679360783045742</v>
+        <v>0.004082795822639368</v>
       </c>
       <c r="T22">
-        <v>0.005679360783045742</v>
+        <v>0.004082795822639369</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H23">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I23">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J23">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.83779699999999</v>
       </c>
       <c r="O23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849104</v>
       </c>
       <c r="P23">
-        <v>0.4898973270305839</v>
+        <v>0.4955285863849105</v>
       </c>
       <c r="Q23">
-        <v>5.965633051490665</v>
+        <v>5.456232059351667</v>
       </c>
       <c r="R23">
-        <v>53.69069746341599</v>
+        <v>49.106088534165</v>
       </c>
       <c r="S23">
-        <v>0.01286299078950947</v>
+        <v>0.01202346790761789</v>
       </c>
       <c r="T23">
-        <v>0.01286299078950947</v>
+        <v>0.01202346790761789</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H24">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I24">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J24">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.057967000000001</v>
+        <v>6.495209666666667</v>
       </c>
       <c r="N24">
-        <v>15.173901</v>
+        <v>19.485629</v>
       </c>
       <c r="O24">
-        <v>0.08007141251452472</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="P24">
-        <v>0.08007141251452471</v>
+        <v>0.1040059814559238</v>
       </c>
       <c r="Q24">
-        <v>0.975054646392</v>
+        <v>1.145202892378333</v>
       </c>
       <c r="R24">
-        <v>8.775491817528</v>
+        <v>10.306826031405</v>
       </c>
       <c r="S24">
-        <v>0.002102395307849976</v>
+        <v>0.002523593218624613</v>
       </c>
       <c r="T24">
-        <v>0.002102395307849976</v>
+        <v>0.002523593218624613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H25">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I25">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J25">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.373288333333332</v>
+        <v>9.909791666666667</v>
       </c>
       <c r="N25">
-        <v>22.119865</v>
+        <v>29.729375</v>
       </c>
       <c r="O25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="P25">
-        <v>0.1167246863664523</v>
+        <v>0.1586827309986352</v>
       </c>
       <c r="Q25">
-        <v>1.421393031746666</v>
+        <v>1.747244917708333</v>
       </c>
       <c r="R25">
-        <v>12.79253728572</v>
+        <v>15.725204259375</v>
       </c>
       <c r="S25">
-        <v>0.003064782114123118</v>
+        <v>0.003850265708330386</v>
       </c>
       <c r="T25">
-        <v>0.003064782114123118</v>
+        <v>0.003850265708330386</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.192776</v>
+        <v>0.176315</v>
       </c>
       <c r="H26">
-        <v>0.578328</v>
+        <v>0.528945</v>
       </c>
       <c r="I26">
-        <v>0.02625650331157337</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="J26">
-        <v>0.02625650331157338</v>
+        <v>0.02426392389455096</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.127540333333333</v>
+        <v>4.591137333333333</v>
       </c>
       <c r="N26">
-        <v>18.382621</v>
+        <v>13.773412</v>
       </c>
       <c r="O26">
-        <v>0.09700356086343023</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="P26">
-        <v>0.09700356086343022</v>
+        <v>0.07351660205871713</v>
       </c>
       <c r="Q26">
-        <v>1.181242715298666</v>
+        <v>0.8094863789266666</v>
       </c>
       <c r="R26">
-        <v>10.631184437688</v>
+        <v>7.285377410340001</v>
       </c>
       <c r="S26">
-        <v>0.002546974317045065</v>
+        <v>0.001783801237338701</v>
       </c>
       <c r="T26">
-        <v>0.002546974317045065</v>
+        <v>0.001783801237338701</v>
       </c>
     </row>
   </sheetData>
